--- a/data/trans_dic/P23_DUKE_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social global bajo</t>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 93,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>85,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>81,08%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84,97%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>82,54%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>88,98%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,12; 40,24</t>
+          <t>76,32; 91,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 28,59</t>
+          <t>78,82; 89,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 34,36</t>
+          <t>78,49; 90,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,84; 91,5</t>
+          <t>83,12; 96,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 23,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 40,01</t>
+          <t>70,41; 85,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77,34; 88,32</t>
+          <t>80,03; 89,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 27,94</t>
+          <t>75,0; 84,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,73; 23,85</t>
+          <t>79,55; 93,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 32,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,4; 88,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>75,49; 86,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>80,97; 88,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>78,99; 85,88</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>83,6; 93,25</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>80,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>82,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>86,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82,33%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>85,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>83,71%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>86,26%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 20,15</t>
+          <t>72,27; 85,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 21,78</t>
+          <t>79,53; 88,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 22,65</t>
+          <t>77,39; 85,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,51; 89,46</t>
+          <t>81,25; 90,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 25,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 22,22</t>
+          <t>79,48; 87,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,59; 85,81</t>
+          <t>83,56; 90,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 21,64</t>
+          <t>81,06; 88,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 19,07</t>
+          <t>81,62; 89,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 21,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>81,66; 86,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>77,76; 85,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>83,01; 88,55</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>80,92; 86,1</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>82,92; 88,94</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,54%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>84,65%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>87,56%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>86,22%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>86,58%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 18,75</t>
+          <t>70,68; 84,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,41</t>
+          <t>83,64; 91,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 17,01</t>
+          <t>80,2; 87,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,34; 84,85</t>
+          <t>81,36; 89,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 15,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,08</t>
+          <t>86,08; 93,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>76,93; 86,76</t>
+          <t>83,41; 90,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,95</t>
+          <t>84,76; 90,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,68</t>
+          <t>83,35; 90,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,62; 84,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>80,42; 87,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>84,75; 89,84</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>83,56; 88,3</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>83,22; 88,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>84,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>82,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>82,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>82,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>87,45%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 20,12</t>
+          <t>79,93; 87,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 18,42</t>
+          <t>76,54; 87,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,56; 87,71</t>
+          <t>79,5; 91,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 19,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,38; 23,5</t>
+          <t>77,16; 85,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,74; 85,27</t>
+          <t>77,98; 87,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 18,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 17,0</t>
+          <t>81,53; 91,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 20,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,86; 85,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>79,41; 85,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>79,27; 85,98</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>83,09; 90,49</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82,05%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84,89%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87,2%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>83,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86,06%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84,95%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>82,88%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>85,5%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>84,31%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>87,07%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78,68; 84,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82,21; 86,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81,07; 86,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>84,54; 89,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>81,34; 85,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84,01; 87,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>82,74; 86,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>84,78; 88,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>81,01; 84,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>83,94; 86,92</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>82,68; 85,72</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>85,25; 88,79</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 93,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>226858</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>300178</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>504150</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>351395</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>280745</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>427204</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>585083</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>421648</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>507604</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>727380</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1089233</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>773043</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>203213; 243624</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>279399; 318862</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>462996; 531726</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>321742; 372444</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>253334; 306993</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>401437; 449768</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>547269; 615152</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>383175; 449461</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>472606; 540870</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>693214; 758402</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1042306; 1133216</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>726273; 810140</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>766.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>970.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>680702</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>857513</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1150030</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>814902</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>753024</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>958878</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1161230</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>857266</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1433726</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1816392</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2311259</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1672168</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>611923; 725180</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>809212; 898442</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1081549; 1199990</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>765861; 851219</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>711121; 785817</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>915960; 991225</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1105180; 1200288</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>812781; 891672</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1354224; 1492142</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1754516; 1871753</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2234254; 2377388</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1607371; 1724017</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>634.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>845.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>487498</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>651903</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>842422</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>659466</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>639410</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>736059</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>958654</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>723737</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1126908</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1387963</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1801076</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1383203</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>438861; 523756</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>618862; 679024</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>800251; 875978</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>624289; 689448</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>611583; 663653</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>705045; 763190</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>924728; 988823</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>691976; 750799</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1070617; 1166925</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1343456; 1424131</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1745345; 1844372</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1329434; 1420830</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>700.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1032137</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>586210</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>816888</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>994287</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>529213</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>757158</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2026424</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1115423</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1574046</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>978637; 1076617</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>543751; 618756</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>742073; 858344</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>944561; 1040964</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>497411; 556446</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>706426; 789435</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1944234; 2086095</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1068761; 1159249</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1495514; 1628716</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>932.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>806.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1011.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1227.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1289.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1830.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2159.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2273.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1816.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2427195</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2395803</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2496602</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2642650</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2667467</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2651354</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2704967</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2759810</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5094661</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5047158</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5201569</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5402460</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2327542; 2502548</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2320171; 2454525</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2420041; 2567853</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2561986; 2713414</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2593893; 2736611</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2588303; 2701926</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2634470; 2762621</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2691237; 2824289</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4980218; 5197006</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4955283; 5130760</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5101053; 5288664</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>5289632; 5509080</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
